--- a/api/data/ORDER.xlsx
+++ b/api/data/ORDER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F03E864-AA08-E94C-A3FF-BAF28A6F2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BAB82-7EF5-7844-8E24-6CB69911D8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="4660" windowWidth="27500" windowHeight="16440" xr2:uid="{16D82F84-EFF6-5049-84B1-EB357391998D}"/>
+    <workbookView xWindow="2700" yWindow="2900" windowWidth="27500" windowHeight="18220" xr2:uid="{16D82F84-EFF6-5049-84B1-EB357391998D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>email</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,42 +43,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P00002</t>
-  </si>
-  <si>
-    <t>P00003</t>
-  </si>
-  <si>
-    <t>P00004</t>
-  </si>
-  <si>
-    <t>P00005</t>
-  </si>
-  <si>
-    <t>P00006</t>
-  </si>
-  <si>
-    <t>P00007</t>
-  </si>
-  <si>
-    <t>P00008</t>
-  </si>
-  <si>
-    <t>P00009</t>
-  </si>
-  <si>
-    <t>P00010</t>
-  </si>
-  <si>
-    <t>P00011</t>
-  </si>
-  <si>
-    <t>product_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{"P00002":1, "P00003":3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_qty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"P00011":1, "P00003":3}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O00012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -464,172 +499,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3984C300-A1B4-AA4D-BCE6-E5793784213A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{329EC6CA-8B5F-3642-954F-95FA66A85538}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8E516665-0BA2-454D-A38B-96C9090450F1}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{27E54C6E-842C-AE4C-8FCF-73F738EEF980}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{D10C25AF-EDA0-754A-A6BE-9AAF439C6723}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{685E3BB6-AA5F-F54A-AE70-13998398BB40}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{B9C4D393-51C0-914C-8059-8422B8130629}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{962FD1BA-CA5A-1B4A-B948-0C5C09DC52C3}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{79B5EC62-9612-A840-8BA5-4A10A10146C0}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{FA634F5F-A953-A74D-846F-1A5D331ED3B1}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{91128D4C-A654-3D4C-A5A0-32AABF65C8FE}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{CA1DE774-B731-9D42-9BDF-87620BE323E0}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{30E14A9A-B829-3B41-9BDD-4B82C04C44F3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{329EC6CA-8B5F-3642-954F-95FA66A85538}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8E516665-0BA2-454D-A38B-96C9090450F1}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{27E54C6E-842C-AE4C-8FCF-73F738EEF980}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D10C25AF-EDA0-754A-A6BE-9AAF439C6723}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{685E3BB6-AA5F-F54A-AE70-13998398BB40}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B9C4D393-51C0-914C-8059-8422B8130629}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{962FD1BA-CA5A-1B4A-B948-0C5C09DC52C3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{79B5EC62-9612-A840-8BA5-4A10A10146C0}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{FA634F5F-A953-A74D-846F-1A5D331ED3B1}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{91128D4C-A654-3D4C-A5A0-32AABF65C8FE}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{CA1DE774-B731-9D42-9BDF-87620BE323E0}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{30E14A9A-B829-3B41-9BDD-4B82C04C44F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
